--- a/data/falo_class_stress.xlsx
+++ b/data/falo_class_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon/BrICC Clinic/BrICC Terms/Spring 2020/pilot_data_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3CACB3-B0A8-0743-9661-9B61E6A508AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CD23A-0045-9F4E-8C05-C278D4C96386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35480" yWindow="2860" windowWidth="27640" windowHeight="15800" xr2:uid="{325F1A5D-1156-324E-8899-649F938C99C8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Question</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">Stressed out about your grades dropping </t>
+  </si>
+  <si>
+    <t>Moderately stressful</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -448,6 +451,9 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -456,6 +462,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -464,6 +473,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -472,6 +484,9 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -480,12 +495,18 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
